--- a/src/main/resources/fgo/localization/cards_normal.xlsx
+++ b/src/main/resources/fgo/localization/cards_normal.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,19 +434,31 @@
         <v>特殊值</v>
       </c>
       <c r="K1" t="str">
+        <v>宝具值</v>
+      </c>
+      <c r="L1" t="str">
+        <v>暴击星</v>
+      </c>
+      <c r="M1" t="str">
         <v>费用+</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>强化版描述</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>伤害值+</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>格挡值+</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>特殊值+</v>
+      </c>
+      <c r="R1" t="str">
+        <v>宝具值+</v>
+      </c>
+      <c r="S1" t="str">
+        <v>暴击星+</v>
       </c>
     </row>
     <row r="2">
@@ -474,10 +486,10 @@
       <c r="H2">
         <v>6</v>
       </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2">
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2">
         <v>9</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="N3">
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="P3">
         <v>8</v>
       </c>
     </row>
@@ -534,6 +546,7 @@
       </c>
       <c r="G4" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !B! 点 格挡 。 
+ 获得 !NP! % fgo:宝具值 。 
  获得 !M! % fgo:宝具威力 。</v>
       </c>
       <c r="I4">
@@ -542,13 +555,13 @@
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="N4">
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="P4">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>30</v>
       </c>
     </row>
@@ -578,11 +591,17 @@
       <c r="H5">
         <v>6</v>
       </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5">
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5">
         <v>9</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -610,10 +629,10 @@
       <c r="I6">
         <v>15</v>
       </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="N6">
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="P6">
         <v>20</v>
       </c>
     </row>
@@ -646,13 +665,13 @@
       <c r="J7">
         <v>20</v>
       </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="N7">
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="P7">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>30</v>
       </c>
     </row>
@@ -679,8 +698,14 @@
         <v xml:space="preserve">在这个回合受到的攻击伤害降低 !M! %。 
  获得 !NP! % fgo:宝具值 ，3点 力量 ，30点 fgo:暴击威力 。</v>
       </c>
-      <c r="L8" t="str">
-        <v/>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="R8">
+        <v>30</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -710,10 +735,10 @@
       <c r="H9">
         <v>9</v>
       </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9">
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9">
         <v>12</v>
       </c>
     </row>
@@ -741,14 +766,8 @@
  获得 !NP! % fgo:宝具值 。 
  在你要被杀死时显现，消耗3划令咒发动。</v>
       </c>
-      <c r="J10">
-        <v>300</v>
-      </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="O10">
-        <v>300</v>
+      <c r="N10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11" xml:space="preserve">
@@ -774,7 +793,7 @@
         <v xml:space="preserve">回复30点生命。 
  使用1划令咒发动。</v>
       </c>
-      <c r="L11" t="str">
+      <c r="N11" t="str">
         <v/>
       </c>
     </row>
@@ -801,14 +820,8 @@
         <v xml:space="preserve">获得 !NP! % fgo:宝具值 。 
  使用1划令咒发动。</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="O12">
-        <v>100</v>
+      <c r="N12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -834,14 +847,8 @@
         <v xml:space="preserve">获得 !Star! 颗 fgo:暴击星 。 
  获得 !NP! % fgo:宝具值 。</v>
       </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="O13">
-        <v>10</v>
+      <c r="N13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -869,10 +876,10 @@
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="O14">
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="Q14">
         <v>3</v>
       </c>
     </row>
@@ -902,10 +909,10 @@
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="O15">
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="Q15">
         <v>3</v>
       </c>
     </row>
@@ -936,10 +943,10 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16" t="str">
-        <v/>
-      </c>
-      <c r="O16">
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="Q16">
         <v>2</v>
       </c>
     </row>
@@ -968,10 +975,10 @@
       <c r="J17">
         <v>25</v>
       </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-      <c r="O17">
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="Q17">
         <v>30</v>
       </c>
     </row>
@@ -1002,10 +1009,10 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="L18" t="str">
-        <v/>
-      </c>
-      <c r="O18">
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="Q18">
         <v>4</v>
       </c>
     </row>
@@ -1039,13 +1046,13 @@
       <c r="I19">
         <v>10</v>
       </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19">
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19">
         <v>13</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>13</v>
       </c>
     </row>
@@ -1071,17 +1078,10 @@
       <c r="G20" t="str" xml:space="preserve">
         <v xml:space="preserve">{@@}恢复 !M! 点生命。{!Upgrades!|1= 
  获得 !NP! % fgo:宝具值 。} 
- 移除你身上的所有负面 状态 。 
   消耗 。</v>
       </c>
-      <c r="J20">
-        <v>30</v>
-      </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="O20">
-        <v>30</v>
+      <c r="N20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21" xml:space="preserve">
@@ -1110,10 +1110,10 @@
       <c r="J21">
         <v>2</v>
       </c>
-      <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="O21">
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="Q21">
         <v>3</v>
       </c>
     </row>
@@ -1144,10 +1144,10 @@
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="L22" t="str">
-        <v/>
-      </c>
-      <c r="O22">
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="Q22">
         <v>4</v>
       </c>
     </row>
@@ -1178,10 +1178,10 @@
       <c r="H23">
         <v>14</v>
       </c>
-      <c r="L23" t="str">
-        <v/>
-      </c>
-      <c r="M23">
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23">
         <v>18</v>
       </c>
     </row>
@@ -1210,8 +1210,14 @@
  获得 !Star! 颗 fgo:暴击星 。 
  消耗 。</v>
       </c>
-      <c r="L24" t="str">
-        <v/>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="S24">
+        <v>15</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -1237,8 +1243,20 @@
         <v xml:space="preserve">获得 !NP! % fgo:宝具值 。 
  获得 !Star! 颗 fgo:暴击星 。</v>
       </c>
-      <c r="L25" t="str">
-        <v/>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="R25">
+        <v>30</v>
+      </c>
+      <c r="S25">
+        <v>15</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
@@ -1264,10 +1282,10 @@
         <v xml:space="preserve">每当你造成 fgo:暴击 时， 
  获得未被 格挡 伤害的 格挡 。</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="L26" t="str">
+      <c r="N26" t="str">
         <v/>
       </c>
     </row>
@@ -1297,10 +1315,10 @@
       <c r="I27">
         <v>15</v>
       </c>
-      <c r="L27" t="str">
-        <v/>
-      </c>
-      <c r="N27">
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="P27">
         <v>20</v>
       </c>
     </row>
@@ -1332,13 +1350,13 @@
       <c r="J28">
         <v>2</v>
       </c>
-      <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28">
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28">
         <v>6</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>3</v>
       </c>
     </row>
@@ -1347,7 +1365,7 @@
         <v>BlessedScion</v>
       </c>
       <c r="B29" t="str">
-        <v>后继者</v>
+        <v>继承者</v>
       </c>
       <c r="C29" t="str">
         <v>UNCOMMON</v>
@@ -1368,10 +1386,10 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="O29">
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="Q29">
         <v>2</v>
       </c>
     </row>
@@ -1400,10 +1418,10 @@
       <c r="J30">
         <v>3</v>
       </c>
-      <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="O30">
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="Q30">
         <v>4</v>
       </c>
     </row>
@@ -1431,18 +1449,12 @@
  回复 !M! 点生命。 
  消耗 。</v>
       </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="L31" t="str" xml:space="preserve">
+      <c r="N31" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 30 % fgo:宝具值 。 
  回复 !M! 点生命。 
  失去 !NP! % fgo:宝具值 。 
  消耗 。</v>
       </c>
-      <c r="O31">
-        <v>10</v>
-      </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
@@ -1470,10 +1482,10 @@
       <c r="J32">
         <v>4</v>
       </c>
-      <c r="L32" t="str">
-        <v/>
-      </c>
-      <c r="O32">
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="Q32">
         <v>5</v>
       </c>
     </row>
@@ -1494,21 +1506,21 @@
         <v>SELF</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="str" xml:space="preserve">
-        <v xml:space="preserve">抽 !M! 张牌。 
- 获得 !Star! 颗 fgo:暴击星 。 
+        <v xml:space="preserve">获得 !Star! 颗 fgo:暴击星 。 
+ 之后 3 次暴击，提高 !M! % fgo:暴击威力 。 
  消耗 。</v>
       </c>
       <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="L33" t="str">
-        <v/>
-      </c>
-      <c r="O33">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="Q33">
+        <v>100</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
@@ -1531,16 +1543,16 @@
         <v>1</v>
       </c>
       <c r="G34" t="str" xml:space="preserve">
-        <v xml:space="preserve"> fgo:宝具值获取提升 。 
- 你打出下一张 *灵峰踏抱冥府之鞴 时，额外获得 !M! 点 fgo:最大生命 和 2 点 力量 。</v>
+        <v xml:space="preserve"> 获得 3 层 fgo:黄金律 。 
+ 你打出下一张 *灵峰踏抱冥府之鞴 时，额外获得 !M! 点 fgo:临时生命 和 2 点 力量 。</v>
       </c>
       <c r="J34">
         <v>10</v>
       </c>
-      <c r="L34" t="str">
-        <v/>
-      </c>
-      <c r="O34">
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="Q34">
         <v>15</v>
       </c>
     </row>
@@ -1568,7 +1580,7 @@
  每去除一种状态，就使下一张攻击牌伤害增加1倍。{!Upgrades!|0= 
  消耗 。}</v>
       </c>
-      <c r="L35" t="str">
+      <c r="N35" t="str">
         <v/>
       </c>
     </row>
@@ -1600,10 +1612,10 @@
       <c r="H36">
         <v>5</v>
       </c>
-      <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36">
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36">
         <v>8</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="O37">
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="Q37">
         <v>3</v>
       </c>
     </row>
@@ -1663,10 +1675,10 @@
         <v xml:space="preserve">消耗 手牌中所有非攻击牌，将等量随机攻击牌加入手牌。它们在本回合耗能变为0。 
  消耗 。</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="L38" t="str">
+      <c r="N38" t="str">
         <v/>
       </c>
     </row>
@@ -1697,10 +1709,10 @@
       <c r="J39">
         <v>10</v>
       </c>
-      <c r="L39" t="str">
-        <v/>
-      </c>
-      <c r="O39">
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="Q39">
         <v>20</v>
       </c>
     </row>
@@ -1731,10 +1743,10 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="L40" t="str">
-        <v/>
-      </c>
-      <c r="O40">
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="Q40">
         <v>3</v>
       </c>
     </row>
@@ -1764,10 +1776,10 @@
       <c r="J41">
         <v>3</v>
       </c>
-      <c r="L41" t="str">
-        <v/>
-      </c>
-      <c r="O41">
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="Q41">
         <v>4</v>
       </c>
     </row>
@@ -1794,10 +1806,10 @@
         <v xml:space="preserve">在你的回合结束时， 消耗 一张随机手牌。 
  fgo:宝具牌 攻击伤害翻倍。</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="L42" t="str">
+      <c r="N42" t="str">
         <v/>
       </c>
     </row>
@@ -1828,10 +1840,10 @@
       <c r="J43">
         <v>30</v>
       </c>
-      <c r="L43" t="str">
-        <v/>
-      </c>
-      <c r="O43">
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="Q43">
         <v>50</v>
       </c>
     </row>
@@ -1858,10 +1870,10 @@
         <v xml:space="preserve">获得 !M! 层 fgo:黄金律 。 
  在你之后 !M! 个回合结束时，获得1次 fgo:回避 。</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>2</v>
       </c>
-      <c r="L44" t="str">
+      <c r="N44" t="str">
         <v/>
       </c>
     </row>
@@ -1890,10 +1902,10 @@
       <c r="J45">
         <v>3</v>
       </c>
-      <c r="L45" t="str">
-        <v/>
-      </c>
-      <c r="O45">
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="Q45">
         <v>4</v>
       </c>
     </row>
@@ -1924,10 +1936,10 @@
       <c r="J46">
         <v>5</v>
       </c>
-      <c r="L46" t="str">
-        <v/>
-      </c>
-      <c r="O46">
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="Q46">
         <v>10</v>
       </c>
     </row>
@@ -1939,26 +1951,20 @@
         <v>黄房子</v>
       </c>
       <c r="C47" t="str">
-        <v>UNCOMMON</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>POWER</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G47" t="str" xml:space="preserve">
         <v xml:space="preserve">获得1次 fgo:回避 。 
  获得1层 fgo:诅呪 。 
  将这张牌放入抽牌堆。</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="str">
+      <c r="N47" t="str">
         <v/>
       </c>
     </row>
@@ -1988,10 +1994,10 @@
       <c r="J48">
         <v>10</v>
       </c>
-      <c r="L48" t="str">
-        <v/>
-      </c>
-      <c r="O48">
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="Q48">
         <v>20</v>
       </c>
     </row>
@@ -2022,10 +2028,10 @@
       <c r="J49">
         <v>2</v>
       </c>
-      <c r="L49" t="str">
-        <v/>
-      </c>
-      <c r="O49">
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="Q49">
         <v>3</v>
       </c>
     </row>
@@ -2056,10 +2062,10 @@
       <c r="H50">
         <v>7</v>
       </c>
-      <c r="L50" t="str">
-        <v/>
-      </c>
-      <c r="M50">
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50">
         <v>11</v>
       </c>
     </row>
@@ -2089,10 +2095,10 @@
       <c r="H51">
         <v>5</v>
       </c>
-      <c r="L51" t="str">
-        <v/>
-      </c>
-      <c r="M51">
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51">
         <v>8</v>
       </c>
     </row>
@@ -2121,10 +2127,10 @@
       <c r="J52">
         <v>4</v>
       </c>
-      <c r="L52" t="str">
-        <v/>
-      </c>
-      <c r="O52">
+      <c r="N52" t="str">
+        <v/>
+      </c>
+      <c r="Q52">
         <v>6</v>
       </c>
     </row>
@@ -2154,10 +2160,10 @@
       <c r="H53">
         <v>15</v>
       </c>
-      <c r="L53" t="str">
-        <v/>
-      </c>
-      <c r="M53">
+      <c r="N53" t="str">
+        <v/>
+      </c>
+      <c r="O53">
         <v>20</v>
       </c>
     </row>
@@ -2183,16 +2189,16 @@
       <c r="G54" t="str" xml:space="preserve">
         <v xml:space="preserve">造成 !D! 点伤害。 
  给予 !M! 层 fgo:诅呪 。 
- 敌人 fgo:无法行动 一回合。 
+ 敌人 fgo:眩晕 一回合。 
  消耗 。</v>
       </c>
       <c r="J54">
         <v>3</v>
       </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="O54">
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="Q54">
         <v>6</v>
       </c>
     </row>
@@ -2222,10 +2228,10 @@
       <c r="J55">
         <v>1</v>
       </c>
-      <c r="L55" t="str">
-        <v/>
-      </c>
-      <c r="O55">
+      <c r="N55" t="str">
+        <v/>
+      </c>
+      <c r="Q55">
         <v>2</v>
       </c>
     </row>
@@ -2255,10 +2261,10 @@
       <c r="J56">
         <v>3</v>
       </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-      <c r="O56">
+      <c r="N56" t="str">
+        <v/>
+      </c>
+      <c r="Q56">
         <v>4</v>
       </c>
     </row>
@@ -2282,20 +2288,18 @@
         <v>0</v>
       </c>
       <c r="G57" t="str" xml:space="preserve">
-        <v xml:space="preserve">失去10% fgo:宝具值 ， 
- 不足时 不能被打出 。 
- 其他手牌放回抽牌堆，重新抽等量牌。</v>
+        <v xml:space="preserve">{@@}失去至少10% fgo:宝具值 。 
+ 所有手牌{!Upgrades!|1=升级并}放回抽牌堆。 
+ 然后抽相同数量张牌。 
+ 消耗 。</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
-      <c r="L57" t="str" xml:space="preserve">
-        <v xml:space="preserve">失去10% fgo:宝具值 ， 
- 不足时 不能被打出 。 
- 其他手牌放回抽牌堆，重新抽等量牌。 
- 打出后返回手牌。</v>
-      </c>
-      <c r="O57">
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="Q57">
         <v>10</v>
       </c>
     </row>
@@ -2330,13 +2334,13 @@
       <c r="J58">
         <v>2</v>
       </c>
-      <c r="L58" t="str">
-        <v/>
-      </c>
-      <c r="M58">
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58">
         <v>16</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>3</v>
       </c>
     </row>
@@ -2369,13 +2373,13 @@
       <c r="J59">
         <v>3</v>
       </c>
-      <c r="L59" t="str">
-        <v/>
-      </c>
-      <c r="M59">
+      <c r="N59" t="str">
+        <v/>
+      </c>
+      <c r="O59">
         <v>7</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>4</v>
       </c>
     </row>
@@ -2399,17 +2403,17 @@
         <v>1</v>
       </c>
       <c r="G60" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !M! 颗 fgo:暴击星 。 
- 消耗 一张手牌。</v>
+        <v xml:space="preserve">从弃牌堆消耗最多 !M! 张卡，每消耗一张获得4颗 fgo:暴击星 。 
+  消耗 。</v>
       </c>
       <c r="J60">
-        <v>10</v>
-      </c>
-      <c r="L60" t="str">
-        <v/>
-      </c>
-      <c r="O60">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="N60" t="str">
+        <v/>
+      </c>
+      <c r="Q60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" xml:space="preserve">
@@ -2443,13 +2447,13 @@
       <c r="J61">
         <v>3</v>
       </c>
-      <c r="L61" t="str">
-        <v/>
-      </c>
-      <c r="M61">
+      <c r="N61" t="str">
+        <v/>
+      </c>
+      <c r="O61">
         <v>3</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>4</v>
       </c>
     </row>
@@ -2475,8 +2479,14 @@
       <c r="G62" t="str">
         <v>打出此牌后，在本回合每造成一次伤害，额外获得 !Star! 颗 fgo:暴击星 。</v>
       </c>
-      <c r="L62" t="str">
-        <v/>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="str">
+        <v/>
+      </c>
+      <c r="S62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" xml:space="preserve">
@@ -2506,10 +2516,10 @@
       <c r="J63">
         <v>20</v>
       </c>
-      <c r="L63" t="str">
-        <v/>
-      </c>
-      <c r="O63">
+      <c r="N63" t="str">
+        <v/>
+      </c>
+      <c r="Q63">
         <v>30</v>
       </c>
     </row>
@@ -2538,10 +2548,10 @@
       <c r="J64">
         <v>1</v>
       </c>
-      <c r="L64" t="str">
-        <v/>
-      </c>
-      <c r="O64">
+      <c r="N64" t="str">
+        <v/>
+      </c>
+      <c r="Q64">
         <v>2</v>
       </c>
     </row>
@@ -2571,10 +2581,16 @@
       <c r="J65">
         <v>10</v>
       </c>
-      <c r="L65" t="str">
-        <v/>
-      </c>
-      <c r="O65">
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="N65" t="str">
+        <v/>
+      </c>
+      <c r="Q65">
+        <v>15</v>
+      </c>
+      <c r="R65">
         <v>15</v>
       </c>
     </row>
@@ -2603,8 +2619,20 @@
  在你的回合结束时，失去 20% fgo:宝具值 
  消耗 。</v>
       </c>
-      <c r="L66" t="str">
-        <v/>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="N66" t="str">
+        <v/>
+      </c>
+      <c r="R66">
+        <v>50</v>
+      </c>
+      <c r="S66">
+        <v>20</v>
       </c>
     </row>
     <row r="67" xml:space="preserve">
@@ -2631,8 +2659,14 @@
  你在这个回合内 
  无法获得 fgo:宝具 。</v>
       </c>
-      <c r="L67" t="str">
-        <v/>
+      <c r="K67">
+        <v>30</v>
+      </c>
+      <c r="N67" t="str">
+        <v/>
+      </c>
+      <c r="R67">
+        <v>50</v>
       </c>
     </row>
     <row r="68" xml:space="preserve">
@@ -2661,10 +2695,10 @@
       <c r="H68">
         <v>9</v>
       </c>
-      <c r="L68" t="str">
-        <v/>
-      </c>
-      <c r="M68">
+      <c r="N68" t="str">
+        <v/>
+      </c>
+      <c r="O68">
         <v>12</v>
       </c>
     </row>
@@ -2694,10 +2728,10 @@
       <c r="J69">
         <v>3</v>
       </c>
-      <c r="L69" t="str">
-        <v/>
-      </c>
-      <c r="O69">
+      <c r="N69" t="str">
+        <v/>
+      </c>
+      <c r="Q69">
         <v>4</v>
       </c>
     </row>
@@ -2724,7 +2758,7 @@
         <v xml:space="preserve">{@@}{!Upgrades!|0=虚无 。 
  }每当你造成一次攻击伤害时，就给予1层 中毒 和 fgo:诅呪 。</v>
       </c>
-      <c r="L70" t="str">
+      <c r="N70" t="str">
         <v/>
       </c>
     </row>
@@ -2751,10 +2785,10 @@
         <v xml:space="preserve">你每有 !M! % fgo:宝具值 ，就获得1 [E] 。 
  失去所有 fgo:宝具值 。</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>0</v>
       </c>
-      <c r="L71" t="str">
+      <c r="N71" t="str">
         <v/>
       </c>
     </row>
@@ -2784,10 +2818,10 @@
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="L72" t="str">
-        <v/>
-      </c>
-      <c r="O72">
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="Q72">
         <v>2</v>
       </c>
     </row>
@@ -2814,7 +2848,7 @@
         <v xml:space="preserve">造成 !D! 点伤害。 
  在你的抽牌堆中加入一张 *洞见 。</v>
       </c>
-      <c r="L73" t="str" xml:space="preserve">
+      <c r="N73" t="str" xml:space="preserve">
         <v xml:space="preserve">造成 !D! 点伤害。 
  将一张 *洞见 加入你的手牌。</v>
       </c>
@@ -2842,14 +2876,8 @@
         <v xml:space="preserve">{@@}{!Upgrades!|1=固有 。 
  }在你的回合开始时，获得 !NP! % fgo:宝具值 。</v>
       </c>
-      <c r="J74">
-        <v>10</v>
-      </c>
-      <c r="L74" t="str">
-        <v/>
-      </c>
-      <c r="O74">
-        <v>10</v>
+      <c r="N74" t="str">
+        <v/>
       </c>
     </row>
     <row r="75" xml:space="preserve">
@@ -2873,9 +2901,9 @@
       </c>
       <c r="G75" t="str" xml:space="preserve">
         <v xml:space="preserve">{@@}{!Upgrades!|1=保留 。 
- }在本回合 保留 你的手牌，每 保留 一张牌，就获得 !M! 点 fgo:暴击星 。</v>
-      </c>
-      <c r="L75" t="str">
+ }在本回合 保留 你的手牌，每 保留 一张牌，就获得 !M! 点 格挡 和 fgo:暴击星 。</v>
+      </c>
+      <c r="N75" t="str">
         <v/>
       </c>
     </row>
@@ -2906,10 +2934,10 @@
       <c r="H76">
         <v>6</v>
       </c>
-      <c r="L76" t="str">
-        <v/>
-      </c>
-      <c r="M76">
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76">
         <v>9</v>
       </c>
     </row>
@@ -2921,29 +2949,20 @@
         <v>重力助推</v>
       </c>
       <c r="C77" t="str">
-        <v>RARE</v>
+        <v/>
       </c>
       <c r="D77" t="str">
-        <v>SKILL</v>
+        <v/>
       </c>
       <c r="E77" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G77" t="str" xml:space="preserve">
         <v xml:space="preserve">丢弃所有手牌， 
  每张获得 !M! 点 格挡 和 fgo:暴击星 。</v>
       </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="L77" t="str">
-        <v/>
-      </c>
-      <c r="O77">
-        <v>4</v>
+      <c r="N77" t="str">
+        <v/>
       </c>
     </row>
     <row r="78" xml:space="preserve">
@@ -2973,10 +2992,10 @@
       <c r="J78">
         <v>50</v>
       </c>
-      <c r="L78" t="str">
-        <v/>
-      </c>
-      <c r="O78">
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="Q78">
         <v>100</v>
       </c>
     </row>
@@ -3002,10 +3021,10 @@
       <c r="G79" t="str">
         <v>将你的 fgo:宝具值 翻倍。</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" t="str">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="str">
         <v/>
       </c>
     </row>
@@ -3035,10 +3054,10 @@
       <c r="H80">
         <v>12</v>
       </c>
-      <c r="L80" t="str">
-        <v/>
-      </c>
-      <c r="M80">
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80">
         <v>17</v>
       </c>
     </row>
@@ -3066,7 +3085,7 @@
  抽到这张牌时给予你和所有敌人 !M! 层 fgo:诅呪 。 
  虚无 。</v>
       </c>
-      <c r="L81" t="str">
+      <c r="N81" t="str">
         <v/>
       </c>
     </row>
@@ -3097,10 +3116,10 @@
       <c r="J82">
         <v>2</v>
       </c>
-      <c r="L82" t="str">
-        <v/>
-      </c>
-      <c r="O82">
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="Q82">
         <v>3</v>
       </c>
     </row>
@@ -3129,10 +3148,10 @@
       <c r="J83">
         <v>2</v>
       </c>
-      <c r="L83" t="str">
-        <v/>
-      </c>
-      <c r="O83">
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="Q83">
         <v>3</v>
       </c>
     </row>
@@ -3159,7 +3178,7 @@
         <v xml:space="preserve">获得 !M! 点 力量 、 敏捷 、 *多层护甲 、 再生 、 荆棘 、 活力 、 无实体 和 人工制品 。 
  消耗 。</v>
       </c>
-      <c r="L84" t="str">
+      <c r="N84" t="str">
         <v/>
       </c>
     </row>
@@ -3189,10 +3208,10 @@
       <c r="J85">
         <v>12</v>
       </c>
-      <c r="L85" t="str">
-        <v/>
-      </c>
-      <c r="O85">
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="Q85">
         <v>16</v>
       </c>
     </row>
@@ -3221,10 +3240,10 @@
       <c r="J86">
         <v>15</v>
       </c>
-      <c r="L86" t="str">
-        <v/>
-      </c>
-      <c r="O86">
+      <c r="N86" t="str">
+        <v/>
+      </c>
+      <c r="Q86">
         <v>25</v>
       </c>
     </row>
@@ -3252,7 +3271,7 @@
  获得5点 力量 和100% fgo:暴击威力 。 
  {!Upgrades!|@=立即死亡。|1=回合结束时死亡。}</v>
       </c>
-      <c r="L87" t="str">
+      <c r="N87" t="str">
         <v/>
       </c>
     </row>
@@ -3281,19 +3300,19 @@
       <c r="J88">
         <v>3</v>
       </c>
-      <c r="L88" t="str">
-        <v/>
-      </c>
-      <c r="O88">
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="Q88">
         <v>6</v>
       </c>
     </row>
     <row r="89" xml:space="preserve">
       <c r="A89" t="str">
-        <v>MaidensWillpower</v>
+        <v>HeroCreation</v>
       </c>
       <c r="B89" t="str">
-        <v>少女的志气</v>
+        <v>英雄塑造</v>
       </c>
       <c r="C89" t="str">
         <v>COMMON</v>
@@ -3305,1217 +3324,789 @@
         <v>SELF</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="str" xml:space="preserve">
+        <v xml:space="preserve">{@@}{!Upgrades!|1=保留 。 
+ }获得100% fgo:暴击威力 。 
+ 你的回合结束时，失去100% fgo:暴击威力 。</v>
+      </c>
+      <c r="N89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Coaching</v>
+      </c>
+      <c r="B90" t="str">
+        <v>指导</v>
+      </c>
+      <c r="C90" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D90" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E90" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str" xml:space="preserve">
+        <v xml:space="preserve">获得 [E] [E] 。 
+  消耗 。</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>MaidensWillpower</v>
+      </c>
+      <c r="B91" t="str">
+        <v>少女的志气</v>
+      </c>
+      <c r="C91" t="str">
+        <v>COMMON</v>
+      </c>
+      <c r="D91" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E91" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 5 层 fgo:毅力 。 
  获得 1 层 人工制品 。</v>
       </c>
-      <c r="K89">
+      <c r="M91">
         <v>0</v>
       </c>
-      <c r="L89" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="90" xml:space="preserve">
-      <c r="A90" t="str">
+      <c r="N91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
         <v>LamplightOfTheSoul</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B92" t="str">
         <v>魂之灯火</v>
       </c>
-      <c r="C90" t="str">
-        <v>COMMON</v>
-      </c>
-      <c r="D90" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E90" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F90">
+      <c r="C92" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D92" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E92" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
-      <c r="G90" t="str" xml:space="preserve">
+      <c r="G92" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !M! 层 fgo:毅力 。 
- 在你的回合结束时，获得 !B! 点 格挡 。</v>
-      </c>
-      <c r="I90">
+ 在你的回合结束时，获得 !M! 点 格挡 。</v>
+      </c>
+      <c r="J92">
         <v>5</v>
       </c>
-      <c r="J90">
+      <c r="N92" t="str">
+        <v/>
+      </c>
+      <c r="Q92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Indomitable</v>
+      </c>
+      <c r="B93" t="str">
+        <v>不屈不挠</v>
+      </c>
+      <c r="C93" t="str">
+        <v>RARE</v>
+      </c>
+      <c r="D93" t="str">
+        <v>POWER</v>
+      </c>
+      <c r="E93" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str" xml:space="preserve">
+        <v xml:space="preserve">获得 !M! 层 fgo:毅力 （可与其他毅力重复）。 
+ 每次 fgo:毅力 发动时，获得 2 点 力量 。</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="N93" t="str">
+        <v/>
+      </c>
+      <c r="Q93">
         <v>10</v>
       </c>
-      <c r="L90" t="str">
-        <v/>
-      </c>
-      <c r="N90">
-        <v>7</v>
-      </c>
-      <c r="O90">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str">
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>WaterfrontSaintess</v>
+      </c>
+      <c r="B94" t="str">
+        <v>水边圣女</v>
+      </c>
+      <c r="C94" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D94" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E94" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str" xml:space="preserve">
+        <v xml:space="preserve">获得 !NP! % fgo:宝具值 和 !M! % fgo:宝具威力 。 
+ fgo:水边 ：获得 !${modID}:CriticalDamage! fgo:暴击威力 。</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+      <c r="N94" t="str">
+        <v/>
+      </c>
+      <c r="Q94">
+        <v>20</v>
+      </c>
+      <c r="R94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>PursuerofLove</v>
+      </c>
+      <c r="B95" t="str">
+        <v>恋之追踪者</v>
+      </c>
+      <c r="C95" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D95" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E95" t="str">
+        <v>ENEMY</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str" xml:space="preserve">
+        <v xml:space="preserve">给予 1 点 力量 。 
+ 给予 3 层 易伤 。 </v>
+      </c>
+      <c r="N95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
         <v>MillenniumCastle</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B96" t="str">
         <v>光辉之月</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C96" t="str">
         <v>RARE</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D96" t="str">
         <v>POWER</v>
       </c>
-      <c r="E91" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F91">
+      <c r="E96" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F96">
         <v>3</v>
       </c>
-      <c r="G91" t="str" xml:space="preserve">
+      <c r="G96" t="str" xml:space="preserve">
         <v xml:space="preserve">{@@}{!Upgrades!|1=固有 。 
  }在每回合开始时，失去1点 力量 ，所有敌人失去2点 力量 ，持续3回合。 
  在结束时反转你的负面 力量 ，获得等量 敏捷 。</v>
       </c>
-      <c r="L91" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str">
+      <c r="N96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
         <v>Shvibzik</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B97" t="str">
         <v>小恶魔</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C97" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D97" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E97" t="str">
         <v>ENEMY</v>
       </c>
-      <c r="F92">
+      <c r="F97">
         <v>2</v>
       </c>
-      <c r="G92" t="str" xml:space="preserve">
+      <c r="G97" t="str" xml:space="preserve">
         <v xml:space="preserve">造成 !D! 点伤害。 
  在本场战斗中你获得 *冻结之眼 。 
  消耗 。</v>
       </c>
-      <c r="H92">
+      <c r="H97">
         <v>20</v>
       </c>
-      <c r="L92" t="str">
-        <v/>
-      </c>
-      <c r="M92">
+      <c r="N97" t="str">
+        <v/>
+      </c>
+      <c r="O97">
         <v>25</v>
       </c>
     </row>
-    <row r="93" xml:space="preserve">
-      <c r="A93" t="str">
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
         <v>LakeTexcoco</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B98" t="str">
         <v>第三太阳</v>
       </c>
-      <c r="C93" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D93" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E93" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="str" xml:space="preserve">
+      <c r="C98" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D98" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E98" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !NP! % fgo:宝具值 。 
  在接下来3回合，获得 !M! % fgo:宝具值 。 
  获得 fgo:水边 。 
  消耗 </v>
       </c>
-      <c r="J93">
+      <c r="J98">
         <v>5</v>
       </c>
-      <c r="L93" t="str">
-        <v/>
-      </c>
-      <c r="O93">
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="N98" t="str">
+        <v/>
+      </c>
+      <c r="Q98">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" xml:space="preserve">
-      <c r="A94" t="str">
+      <c r="R98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
         <v>LevelSlash</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B99" t="str">
         <v>壹之突</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C99" t="str">
         <v>RARE</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D99" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E99" t="str">
         <v>ALL_ENEMY</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="str" xml:space="preserve">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str" xml:space="preserve">
         <v xml:space="preserve">对所有敌人造成 !D! 点伤害。进入 平静 。 
  将一张 *贰之突 放入你的抽牌堆中。 消耗 。</v>
       </c>
-      <c r="H94">
+      <c r="H99">
         <v>6</v>
       </c>
-      <c r="L94" t="str">
-        <v/>
-      </c>
-      <c r="M94">
+      <c r="N99" t="str">
+        <v/>
+      </c>
+      <c r="O99">
         <v>9</v>
       </c>
     </row>
-    <row r="95" xml:space="preserve">
-      <c r="A95" t="str">
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
         <v>CrimsonSlash</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B100" t="str">
         <v>贰之突</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C100" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D100" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E100" t="str">
         <v>ALL_ENEMY</v>
       </c>
-      <c r="F95">
+      <c r="F100">
         <v>2</v>
       </c>
-      <c r="G95" t="str" xml:space="preserve">
+      <c r="G100" t="str" xml:space="preserve">
         <v xml:space="preserve">对所有敌人造成 !D! 点伤害，给予 !M! 层 易伤 。 
  进入 愤怒 。 
  将一张 *叁之突 放入你的抽牌堆中。 消耗 。</v>
       </c>
-      <c r="H95">
+      <c r="H100">
         <v>8</v>
       </c>
-      <c r="J95">
+      <c r="J100">
         <v>2</v>
       </c>
-      <c r="L95" t="str">
-        <v/>
-      </c>
-      <c r="M95">
+      <c r="N100" t="str">
+        <v/>
+      </c>
+      <c r="O100">
         <v>10</v>
       </c>
-      <c r="O95">
+      <c r="Q100">
         <v>3</v>
       </c>
     </row>
-    <row r="96" xml:space="preserve">
-      <c r="A96" t="str">
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
         <v>DivineDualEdge</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B101" t="str">
         <v>叁之突</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C101" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D101" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E101" t="str">
         <v>ALL_ENEMY</v>
       </c>
-      <c r="F96">
+      <c r="F101">
         <v>3</v>
       </c>
-      <c r="G96" t="str" xml:space="preserve">
+      <c r="G101" t="str" xml:space="preserve">
         <v xml:space="preserve">对所有敌人造成 !D! 点伤害2次。在每回合开始时额外抽1张牌。 
  进入 神格 。 
  消耗 。</v>
       </c>
-      <c r="H96">
+      <c r="H101">
         <v>10</v>
       </c>
-      <c r="L96" t="str">
-        <v/>
-      </c>
-      <c r="M96">
+      <c r="N101" t="str">
+        <v/>
+      </c>
+      <c r="O101">
         <v>13</v>
       </c>
     </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" t="str">
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
         <v>UndeadBird</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B102" t="str">
         <v>不死鸟落于大地</v>
       </c>
-      <c r="C97" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D97" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E97" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F97">
+      <c r="C102" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D102" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E102" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F102">
         <v>0</v>
       </c>
-      <c r="G97" t="str" xml:space="preserve">
+      <c r="G102" t="str" xml:space="preserve">
         <v xml:space="preserve">增加 !M! 张随机回复生命的牌到你的手牌。 
  消耗 。</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="str">
-        <v/>
-      </c>
-      <c r="O97">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="str">
+        <v/>
+      </c>
+      <c r="Q102">
         <v>2</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
+    <row r="103">
+      <c r="A103" t="str">
         <v>NightlessCharisma</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B103" t="str">
         <v>不夜的魅力</v>
       </c>
-      <c r="C98" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D98" t="str">
+      <c r="C103" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D103" t="str">
         <v>POWER</v>
       </c>
-      <c r="E98" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="str">
+      <c r="E103" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
         <v>在每回合开始时，随机将你抽牌堆中 !M! 张攻击牌加入你的手牌，并将其 升级 。</v>
       </c>
-      <c r="K98">
+      <c r="M103">
         <v>0</v>
       </c>
-      <c r="L98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" t="str">
+      <c r="N103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
         <v>CharismaOfConflict</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B104" t="str">
         <v>斗争的魅力</v>
       </c>
-      <c r="C99" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D99" t="str">
+      <c r="C104" t="str">
+        <v>UNCOMMON</v>
+      </c>
+      <c r="D104" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E104" t="str">
         <v>ALL_ENEMY</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="str" xml:space="preserve">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str" xml:space="preserve">
         <v xml:space="preserve">对所有敌人造成 !D! 点伤害。 
  如果你有 fgo:毅力 状态 ，则再次造成 !D! 点伤害。</v>
       </c>
-      <c r="H99">
+      <c r="H104">
         <v>7</v>
       </c>
-      <c r="L99" t="str">
-        <v/>
-      </c>
-      <c r="M99">
+      <c r="N104" t="str">
+        <v/>
+      </c>
+      <c r="O104">
         <v>10</v>
       </c>
     </row>
-    <row r="100" xml:space="preserve">
-      <c r="A100" t="str">
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
         <v>ProofAndRebuttal</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B105" t="str">
         <v>证明与反证</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C105" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D100" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E100" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F100">
+      <c r="D105" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E105" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F105">
         <v>0</v>
       </c>
-      <c r="G100" t="str" xml:space="preserve">
+      <c r="G105" t="str" xml:space="preserve">
         <v xml:space="preserve">{@@}抽1张牌。 
  将手牌中的任意张牌放到抽牌堆的顶部。{!Upgrades!|0= 
   消耗 。}</v>
       </c>
-      <c r="L100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101" xml:space="preserve">
-      <c r="A101" t="str">
+      <c r="N105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
         <v>FifthForm</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B106" t="str">
         <v>第五势</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C106" t="str">
         <v>RARE</v>
       </c>
-      <c r="D101" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E101" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F101">
+      <c r="D106" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E106" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F106">
         <v>0</v>
       </c>
-      <c r="G101" t="str" xml:space="preserve">
+      <c r="G106" t="str" xml:space="preserve">
         <v xml:space="preserve">在本回合，对一个敌人的攻击牌会打出两次，但伤害降低 !M! %。 
  消耗 。</v>
       </c>
-      <c r="L101" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="102" xml:space="preserve">
-      <c r="A102" t="str">
+      <c r="N106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
         <v>GrandOrder</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B107" t="str">
         <v>命运指定</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C107" t="str">
         <v>RARE</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D107" t="str">
         <v>ATTACK</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E107" t="str">
         <v>ALL_ENEMY</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="str" xml:space="preserve">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str" xml:space="preserve">
         <v xml:space="preserve">所有非boss敌人死亡。 
  stslib:即逝 。</v>
       </c>
-      <c r="K102">
+      <c r="M107">
         <v>0</v>
       </c>
-      <c r="L102" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
+      <c r="N107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
         <v>Kaleidoscope</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B108" t="str">
         <v>万华镜</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C108" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D108" t="str">
         <v>POWER</v>
       </c>
-      <c r="E103" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F103">
+      <c r="E108" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F108">
         <v>-2</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G108" t="str">
         <v>获得 !NP! % fgo:宝具值 。</v>
       </c>
-      <c r="L103" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
+      <c r="K108">
+        <v>40</v>
+      </c>
+      <c r="N108" t="str">
+        <v/>
+      </c>
+      <c r="R108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
         <v>TheBlackGrail</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B109" t="str">
         <v>黑之圣杯</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C109" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D109" t="str">
         <v>POWER</v>
       </c>
-      <c r="E104" t="str">
+      <c r="E109" t="str">
         <v>NONE</v>
       </c>
-      <c r="F104">
+      <c r="F109">
         <v>-2</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G109" t="str">
         <v>获得 !M! % fgo:宝具威力 。</v>
       </c>
-      <c r="J104">
+      <c r="J109">
         <v>40</v>
       </c>
-      <c r="L104" t="str">
-        <v/>
-      </c>
-      <c r="O104">
+      <c r="N109" t="str">
+        <v/>
+      </c>
+      <c r="Q109">
         <v>60</v>
       </c>
     </row>
-    <row r="105" xml:space="preserve">
-      <c r="A105" t="str">
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
         <v>SupportCraft</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B110" t="str">
         <v>支援牌</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C110" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D105" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E105" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F105">
+      <c r="D110" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E110" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F110">
         <v>-2</v>
       </c>
-      <c r="G105" t="str" xml:space="preserve">
+      <c r="G110" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !NP! % fgo:宝具值 。 
  升级 没有效果。</v>
       </c>
-      <c r="J105">
-        <v>50</v>
-      </c>
-      <c r="L105" t="str">
-        <v/>
-      </c>
-      <c r="O105">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" xml:space="preserve">
-      <c r="A106" t="str">
-        <v>HeroCreation</v>
-      </c>
-      <c r="B106" t="str">
-        <v>英雄塑造</v>
-      </c>
-      <c r="C106" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D106" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E106" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F106">
+      <c r="N110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>RayHorizon</v>
+      </c>
+      <c r="B111" t="str">
+        <v>光之地平线</v>
+      </c>
+      <c r="C111" t="str">
+        <v>SPECIAL</v>
+      </c>
+      <c r="D111" t="str">
+        <v>SKILL</v>
+      </c>
+      <c r="E111" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F111">
         <v>0</v>
       </c>
-      <c r="G106" t="str" xml:space="preserve">
-        <v xml:space="preserve">{@@}{!Upgrades!|1=保留 。 
- }获得100% fgo:暴击威力 。 
- 你的回合结束时，失去100% fgo:暴击威力 。</v>
-      </c>
-      <c r="L106" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="107" xml:space="preserve">
-      <c r="A107" t="str">
-        <v>Coaching</v>
-      </c>
-      <c r="B107" t="str">
-        <v>指导</v>
-      </c>
-      <c r="C107" t="str">
-        <v>UNCOMMON</v>
-      </c>
-      <c r="D107" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E107" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 [E] [E] 。 
-  消耗 。</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="108" xml:space="preserve">
-      <c r="A108" t="str">
-        <v>RayHorizon</v>
-      </c>
-      <c r="B108" t="str">
-        <v>光之地平线</v>
-      </c>
-      <c r="C108" t="str">
-        <v>SPECIAL</v>
-      </c>
-      <c r="D108" t="str">
-        <v>SKILL</v>
-      </c>
-      <c r="E108" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="str" xml:space="preserve">
+      <c r="G111" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !NP! % fgo:宝具值 。 
  阻止本回合你受到的所有攻击。 
  下一张 fgo:宝具牌 固定为 *无人知晓的无垢搏动 。</v>
       </c>
-      <c r="L108" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="109" xml:space="preserve">
-      <c r="A109" t="str">
+      <c r="K111">
+        <v>50</v>
+      </c>
+      <c r="N111" t="str">
+        <v/>
+      </c>
+      <c r="R111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
         <v>ObscurantWallofChalk</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B112" t="str">
         <v>时为朦胧的白垩之壁</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C112" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D112" t="str">
         <v>POWER</v>
       </c>
-      <c r="E109" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F109">
+      <c r="E112" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F112">
         <v>2</v>
       </c>
-      <c r="G109" t="str" xml:space="preserve">
+      <c r="G112" t="str" xml:space="preserve">
         <v xml:space="preserve">阻止下一次你受到的生命值损伤。 
  获得 !NP! % fgo:宝具值 。</v>
       </c>
-      <c r="L109" t="str" xml:space="preserve">
+      <c r="K112">
+        <v>20</v>
+      </c>
+      <c r="N112" t="str" xml:space="preserve">
         <v xml:space="preserve">获得1层 fgo:肃正防御 和 无实体 。 
  获得 !NP! % fgo:宝具值 。</v>
       </c>
-    </row>
-    <row r="110" xml:space="preserve">
-      <c r="A110" t="str">
+      <c r="R112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
         <v>TimewornBulletKindling</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B113" t="str">
         <v>测定时间的紫弹之薪</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C113" t="str">
         <v>SPECIAL</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D113" t="str">
         <v>POWER</v>
       </c>
-      <c r="E110" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="str" xml:space="preserve">
+      <c r="E113" t="str">
+        <v>SELF</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str" xml:space="preserve">
         <v xml:space="preserve">获得 !M! % fgo:宝具威力 。 
  消耗所有 fgo:暴击星 ，每消耗一个 fgo:宝具值 增加 4%。 
  失去4点生命。使用后变为 *时为朦胧的白垩之壁 。</v>
       </c>
-      <c r="L110" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="111" xml:space="preserve">
-      <c r="A111" t="str">
-        <v>Indomitable</v>
-      </c>
-      <c r="B111" t="str">
-        <v>不屈不挠</v>
-      </c>
-      <c r="C111" t="str">
-        <v>RARE</v>
-      </c>
-      <c r="D111" t="str">
-        <v>POWER</v>
-      </c>
-      <c r="E111" t="str">
-        <v>SELF</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !M! 层 fgo:毅力 （可与其他毅力重复）。 
- 每次 fgo:毅力 发动时，获得 2 点 力量 。</v>
-      </c>
-      <c r="J111">
-        <v>5</v>
-      </c>
-      <c r="L111" t="str">
-        <v/>
-      </c>
-      <c r="O111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>MerlinMagic</v>
-      </c>
-      <c r="B112" t="str">
-        <v>幻术</v>
-      </c>
-      <c r="C112" t="str">
-        <v/>
-      </c>
-      <c r="D112" t="str">
-        <v/>
-      </c>
-      <c r="E112" t="str">
-        <v/>
-      </c>
-      <c r="G112" t="str">
-        <v>当前每有一名敌人，就获得 !B! 点 格挡 。</v>
-      </c>
-      <c r="L112" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="113" xml:space="preserve">
-      <c r="A113" t="str">
-        <v>LivingFlame</v>
-      </c>
-      <c r="B113" t="str">
-        <v>妖星火轮</v>
-      </c>
-      <c r="C113" t="str">
-        <v/>
-      </c>
-      <c r="D113" t="str">
-        <v/>
-      </c>
-      <c r="E113" t="str">
-        <v/>
-      </c>
-      <c r="G113" t="str" xml:space="preserve">
-        <v xml:space="preserve">每当你被攻击时， 
- 给予攻击者 !M! 层 fgo:灼烧 和1层 fgo:防御破坏 。</v>
-      </c>
-      <c r="L113" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="114" xml:space="preserve">
-      <c r="A114" t="str">
-        <v>CircuitConnect</v>
-      </c>
-      <c r="B114" t="str">
-        <v>回路连接</v>
-      </c>
-      <c r="C114" t="str">
-        <v/>
-      </c>
-      <c r="D114" t="str">
-        <v/>
-      </c>
-      <c r="E114" t="str">
-        <v/>
-      </c>
-      <c r="G114" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !B! 点 格挡 。 
- 造成 !D! 点伤害。</v>
-      </c>
-      <c r="L114" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="115" xml:space="preserve">
-      <c r="A115" t="str">
-        <v>GiantoftheBridge</v>
-      </c>
-      <c r="B115" t="str">
-        <v>桥之巨人</v>
-      </c>
-      <c r="C115" t="str">
-        <v/>
-      </c>
-      <c r="D115" t="str">
-        <v/>
-      </c>
-      <c r="E115" t="str">
-        <v/>
-      </c>
-      <c r="G115" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !B! 点 格挡 。 
- 造成 !D! 点伤害。 
- 仅在第二、四幕生效两次。</v>
-      </c>
-      <c r="L115" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="116" xml:space="preserve">
-      <c r="A116" t="str">
-        <v>Doppelganger</v>
-      </c>
-      <c r="B116" t="str">
-        <v>二重身</v>
-      </c>
-      <c r="C116" t="str">
-        <v/>
-      </c>
-      <c r="D116" t="str">
-        <v/>
-      </c>
-      <c r="E116" t="str">
-        <v/>
-      </c>
-      <c r="G116" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成 !D! 点伤害2次。 
- 抽一张牌，将抽到的牌的一张复制品加入你的手牌中。</v>
-      </c>
-      <c r="L116" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="117" xml:space="preserve">
-      <c r="A117" t="str">
-        <v>StarPioneer</v>
-      </c>
-      <c r="B117" t="str">
-        <v>星之开拓者</v>
-      </c>
-      <c r="C117" t="str">
-        <v/>
-      </c>
-      <c r="D117" t="str">
-        <v/>
-      </c>
-      <c r="E117" t="str">
-        <v/>
-      </c>
-      <c r="G117" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !M! 点 活力 。 
- 在本场战斗中 升级 手牌中的一张牌。</v>
-      </c>
-      <c r="L117" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !M! 点 活力 。 
- 在本场战斗中 升级 手牌中的所有牌。</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>JewelOfFourteen</v>
-      </c>
-      <c r="B118" t="str">
-        <v>岩窟王</v>
-      </c>
-      <c r="C118" t="str">
-        <v/>
-      </c>
-      <c r="D118" t="str">
-        <v/>
-      </c>
-      <c r="E118" t="str">
-        <v/>
-      </c>
-      <c r="G118" t="str">
-        <v>{@@}增加 *喝彩之焰{!Upgrades!|1=+} 直到你的手牌满。</v>
-      </c>
-      <c r="L118" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="119" xml:space="preserve">
-      <c r="A119" t="str">
-        <v>FlamesofApplause</v>
-      </c>
-      <c r="B119" t="str">
-        <v>喝彩之焰</v>
-      </c>
-      <c r="C119" t="str">
-        <v/>
-      </c>
-      <c r="D119" t="str">
-        <v/>
-      </c>
-      <c r="E119" t="str">
-        <v/>
-      </c>
-      <c r="G119" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成 !D! 点伤害。 
- 给予 !M! 层 fgo:灼烧 。 
- 消耗 。</v>
-      </c>
-      <c r="L119" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="120" xml:space="preserve">
-      <c r="A120" t="str">
-        <v>Trifas</v>
-      </c>
-      <c r="B120" t="str">
-        <v>身在图利法斯</v>
-      </c>
-      <c r="C120" t="str">
-        <v/>
-      </c>
-      <c r="D120" t="str">
-        <v/>
-      </c>
-      <c r="E120" t="str">
-        <v/>
-      </c>
-      <c r="G120" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 !B! 点 格挡 。 
- 移除你的所有 虚弱 。</v>
-      </c>
-      <c r="L120" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="121" xml:space="preserve">
-      <c r="A121" t="str">
-        <v>BlueStarSea</v>
-      </c>
-      <c r="B121" t="str">
-        <v>苍之星海</v>
-      </c>
-      <c r="C121" t="str">
-        <v/>
-      </c>
-      <c r="D121" t="str">
-        <v/>
-      </c>
-      <c r="E121" t="str">
-        <v/>
-      </c>
-      <c r="G121" t="str" xml:space="preserve">
-        <v xml:space="preserve">回复 !M! 点生命。 
- 抽1张牌。</v>
-      </c>
-      <c r="L121" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="122" xml:space="preserve">
-      <c r="A122" t="str">
-        <v>LaPucelle</v>
-      </c>
-      <c r="B122" t="str">
-        <v>红莲圣女</v>
-      </c>
-      <c r="C122" t="str">
-        <v/>
-      </c>
-      <c r="D122" t="str">
-        <v/>
-      </c>
-      <c r="E122" t="str">
-        <v/>
-      </c>
-      <c r="G122" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成 !D! 点伤害。 
- 给予伤害一半的 fgo:灼烧 。 
- 在你的抽牌堆中加入一张 *灼伤+ 。</v>
-      </c>
-      <c r="L122" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="123" xml:space="preserve">
-      <c r="A123" t="str">
-        <v>ParadisChateaudIf</v>
-      </c>
-      <c r="B123" t="str">
-        <v>星啊，往赴辉途</v>
-      </c>
-      <c r="C123" t="str">
-        <v/>
-      </c>
-      <c r="D123" t="str">
-        <v/>
-      </c>
-      <c r="E123" t="str">
-        <v/>
-      </c>
-      <c r="G123" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成等于敌人 fgo:灼烧 层数的伤害 !M! 次。 
- 敌人 fgo:无法行动 一回合。</v>
-      </c>
-      <c r="L123" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成等于敌人 fgo:灼烧 层数+1的伤害 !M! 次。 
- 敌人 fgo:无法行动 一回合。</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>WickerMan</v>
-      </c>
-      <c r="B124" t="str">
-        <v>灼烧殆尽的炎笼</v>
-      </c>
-      <c r="C124" t="str">
-        <v/>
-      </c>
-      <c r="D124" t="str">
-        <v/>
-      </c>
-      <c r="E124" t="str">
-        <v/>
-      </c>
-      <c r="G124" t="str">
-        <v>对所有敌人造成 !D! 点伤害，给予 !M! 层 fgo:灼烧 和 易伤 。</v>
-      </c>
-      <c r="L124" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="125" xml:space="preserve">
-      <c r="A125" t="str">
-        <v>ReplicaAgateram</v>
-      </c>
-      <c r="B125" t="str">
-        <v>银之臂</v>
-      </c>
-      <c r="C125" t="str">
-        <v/>
-      </c>
-      <c r="D125" t="str">
-        <v/>
-      </c>
-      <c r="E125" t="str">
-        <v/>
-      </c>
-      <c r="G125" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得 6 点 格挡 。 
- 失去所有负面状态1层，每层获得 !B! 点 格挡 。</v>
-      </c>
-      <c r="L125" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>TakeRomance</v>
-      </c>
-      <c r="B126" t="str">
-        <v>享用浪漫</v>
-      </c>
-      <c r="C126" t="str">
-        <v/>
-      </c>
-      <c r="D126" t="str">
-        <v/>
-      </c>
-      <c r="E126" t="str">
-        <v/>
-      </c>
-      <c r="G126" t="str">
-        <v>预见 !M! 。</v>
-      </c>
-      <c r="L126" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="127" xml:space="preserve">
-      <c r="A127" t="str">
-        <v>GloriousStrike</v>
-      </c>
-      <c r="B127" t="str">
-        <v>栗蓉馅打击</v>
-      </c>
-      <c r="C127" t="str">
-        <v/>
-      </c>
-      <c r="D127" t="str">
-        <v/>
-      </c>
-      <c r="E127" t="str">
-        <v/>
-      </c>
-      <c r="G127" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成 !D! 点伤害 !M! 次。 
- 在你的回合结束时，移除所有负面状态。 
- 消耗 。</v>
-      </c>
-      <c r="L127" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="128" xml:space="preserve">
-      <c r="A128" t="str">
-        <v>KarmicVision</v>
-      </c>
-      <c r="B128" t="str">
-        <v>业之瞳</v>
-      </c>
-      <c r="C128" t="str">
-        <v/>
-      </c>
-      <c r="D128" t="str">
-        <v/>
-      </c>
-      <c r="E128" t="str">
-        <v/>
-      </c>
-      <c r="G128" t="str" xml:space="preserve">
-        <v xml:space="preserve">{@@} fgo:无敌贯通 。{!Upgrades!|1= 
- 额外造成敌人状态种类数量 !M! 倍的伤害。}</v>
-      </c>
-      <c r="L128" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="129" xml:space="preserve">
-      <c r="A129" t="str">
-        <v>MagicBulletCharging</v>
-      </c>
-      <c r="B129" t="str">
-        <v>魔弹装填</v>
-      </c>
-      <c r="C129" t="str">
-        <v/>
-      </c>
-      <c r="D129" t="str">
-        <v/>
-      </c>
-      <c r="E129" t="str">
-        <v/>
-      </c>
-      <c r="G129" t="str" xml:space="preserve">
-        <v xml:space="preserve">获得1个 *魔弹 X次。 
- 在你有 *魔弹 时改为失去所有，每个对所有敌人造成 !D! 点伤害。</v>
-      </c>
-      <c r="L129" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="130" xml:space="preserve">
-      <c r="A130" t="str">
-        <v>StarBasket</v>
-      </c>
-      <c r="B130" t="str">
-        <v>星之笼</v>
-      </c>
-      <c r="C130" t="str">
-        <v/>
-      </c>
-      <c r="D130" t="str">
-        <v/>
-      </c>
-      <c r="E130" t="str">
-        <v/>
-      </c>
-      <c r="G130" t="str" xml:space="preserve">
-        <v xml:space="preserve">造成 !D! 点伤害。 
- 给予目标 !D! 点 格挡 。 
- 获得 !M! 次随机正面状态。</v>
-      </c>
-      <c r="L130" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>ChildrenSHero</v>
-      </c>
-      <c r="B131" t="str">
-        <v>孩子们的英雄</v>
-      </c>
-      <c r="C131" t="str">
-        <v/>
-      </c>
-      <c r="D131" t="str">
-        <v/>
-      </c>
-      <c r="E131" t="str">
-        <v/>
-      </c>
-      <c r="G131" t="str">
-        <v>将你本回合打出的上一张牌的 !M! 张复制品放入你的手牌中。</v>
-      </c>
-      <c r="L131" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="132" xml:space="preserve">
-      <c r="A132" t="str">
-        <v>Summer</v>
-      </c>
-      <c r="B132" t="str">
-        <v>夏日</v>
-      </c>
-      <c r="C132" t="str">
-        <v/>
-      </c>
-      <c r="D132" t="str">
-        <v/>
-      </c>
-      <c r="E132" t="str">
-        <v/>
-      </c>
-      <c r="G132" t="str" xml:space="preserve">
-        <v xml:space="preserve">{@@}获得 fgo:水边 。{!Upgrades!|1= 
- 获得 !NP! % fgo:宝具值 。}</v>
-      </c>
-      <c r="L132" t="str">
+      <c r="N113" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O132"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S113"/>
   </ignoredErrors>
 </worksheet>
 </file>